--- a/doc/ue_umg_text_draw.xlsx
+++ b/doc/ue_umg_text_draw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF2E80-D76B-412F-ABDB-14E7C68C60BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF50C8D-87E1-4518-A399-220A2BC7BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>UMG字体渲染流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>DrawElement.IsPixelSnapped() ? AddTextElement&lt;ESlateVertexRounding::Enabled&gt;(DrawElement) : AddTextElement&lt;ESlateVertexRounding::Disabled&gt;(DrawElement);</t>
-  </si>
-  <si>
-    <t>case EElementType::ET_ShapedText:</t>
   </si>
   <si>
     <t>SCOPED_NAMED_EVENT_TEXT("Slate::AddShapedTextElement", FColor::Magenta);</t>
@@ -559,6 +556,18 @@
   </si>
   <si>
     <t>!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case EElementType::ET_ShapedText:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件里面存放的是Ftext，渲染是用Fstring，主要Ftext可以进行多语言的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">！！！注意，用的是tostring，也就是变成了FString </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1372,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F40"/>
+  <dimension ref="B3:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,157 +1394,169 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D23">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
+      <c r="F29" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E37" t="s">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1550,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E11CF08-E4C1-49B3-AEA5-9D491F9D7415}">
   <dimension ref="A3:Q88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -1561,27 +1582,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="Q7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1589,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1602,18 +1623,18 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1631,28 +1652,28 @@
         <v>25</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
@@ -1660,12 +1681,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
@@ -1673,12 +1694,12 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
@@ -1686,22 +1707,22 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
@@ -1846,12 +1867,12 @@
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -1870,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B6D258-F286-4567-9238-7CE1E3541C8E}">
   <dimension ref="B5:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -1901,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504B082B-AEA2-41BE-9FA4-AEB8AB600300}">
-  <dimension ref="B5:L13"/>
+  <dimension ref="B5:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1939,6 +1960,11 @@
       </c>
       <c r="L13" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1953,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B32EBF-3EE5-413C-B29F-1CB8BDFF7757}">
   <dimension ref="C4:Q157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2086,12 +2112,12 @@
     </row>
     <row r="51" spans="11:16" x14ac:dyDescent="0.2">
       <c r="K51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="11:16" x14ac:dyDescent="0.2">
       <c r="M57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="11:16" x14ac:dyDescent="0.2">
@@ -2236,7 +2262,7 @@
     </row>
     <row r="87" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P87" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="16:17" x14ac:dyDescent="0.2">
@@ -2246,17 +2272,17 @@
     </row>
     <row r="89" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="16:17" x14ac:dyDescent="0.2">
@@ -2271,7 +2297,7 @@
     </row>
     <row r="94" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="16:17" x14ac:dyDescent="0.2">
@@ -2281,17 +2307,17 @@
     </row>
     <row r="96" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="16:17" x14ac:dyDescent="0.2">
@@ -2306,7 +2332,7 @@
     </row>
     <row r="101" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="16:17" x14ac:dyDescent="0.2">
@@ -2316,17 +2342,17 @@
     </row>
     <row r="103" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="16:17" x14ac:dyDescent="0.2">
@@ -2341,7 +2367,7 @@
     </row>
     <row r="108" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="16:17" x14ac:dyDescent="0.2">
@@ -2351,22 +2377,22 @@
     </row>
     <row r="110" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="16:17" x14ac:dyDescent="0.2">
@@ -2381,7 +2407,7 @@
     </row>
     <row r="116" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="16:17" x14ac:dyDescent="0.2">
@@ -2391,17 +2417,17 @@
     </row>
     <row r="118" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q120" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="121" spans="16:17" x14ac:dyDescent="0.2">
@@ -2416,7 +2442,7 @@
     </row>
     <row r="123" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="16:17" x14ac:dyDescent="0.2">
@@ -2426,17 +2452,17 @@
     </row>
     <row r="125" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="16:17" x14ac:dyDescent="0.2">
@@ -2451,7 +2477,7 @@
     </row>
     <row r="130" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="16:17" x14ac:dyDescent="0.2">
@@ -2461,17 +2487,17 @@
     </row>
     <row r="132" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="133" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q134" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="16:17" x14ac:dyDescent="0.2">
@@ -2486,7 +2512,7 @@
     </row>
     <row r="137" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="16:17" x14ac:dyDescent="0.2">
@@ -2496,17 +2522,17 @@
     </row>
     <row r="139" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="140" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="141" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142" spans="16:17" x14ac:dyDescent="0.2">
@@ -2521,7 +2547,7 @@
     </row>
     <row r="145" spans="14:17" x14ac:dyDescent="0.2">
       <c r="P145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="14:17" x14ac:dyDescent="0.2">
@@ -2531,17 +2557,17 @@
     </row>
     <row r="147" spans="14:17" x14ac:dyDescent="0.2">
       <c r="Q147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" spans="14:17" x14ac:dyDescent="0.2">
       <c r="Q148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="14:17" x14ac:dyDescent="0.2">
       <c r="Q149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="14:17" x14ac:dyDescent="0.2">
@@ -2556,12 +2582,12 @@
     </row>
     <row r="152" spans="14:17" x14ac:dyDescent="0.2">
       <c r="P152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="14:17" x14ac:dyDescent="0.2">
       <c r="Q153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" spans="14:17" x14ac:dyDescent="0.2">
